--- a/biology/Botanique/Cucurbita_foetidissima/Cucurbita_foetidissima.xlsx
+++ b/biology/Botanique/Cucurbita_foetidissima/Cucurbita_foetidissima.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cucurbita foetidissima est une espèce de plante à fleurs de la famille des Cucurbitaceae, originaire du Sud-Ouest des États-Unis et du nord du Mexique.
 </t>
@@ -513,11 +525,51 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-C'est une plante malodorante, à croissance rapide, qui possède une grosse racine tubérisée pouvant peser plusieurs dizaines de kilogrammes. Les longues tiges rampantes peuvent atteindre 6 m de longueur, et le feuillage peut parfois s'élever jusqu'à 30 cm au-dessus du sol. Les grandes feuilles rugueuses, qui mesurent jusqu'à 30 cm de longueur, sont triangulaires, de couleur verte tirant vers le grisâtre[1].
-Appareil reproducteur
-La floraison a lieu entre avril et juillet.
-L'inflorescence est une fleur isolée en forme d'entonnoir, jaune ou orangé, située à l'aisselle des feuilles, et le plus souvent dissimulée par ces dernières. Chaque fleur mesure 5 à 7,5 cm de diamètre. La corolle est composée de 5 pétales partiellement soudés et se terminant par un lobe libre. Certaines fleurs sont dépourvues d'étamines[1]. 
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une plante malodorante, à croissance rapide, qui possède une grosse racine tubérisée pouvant peser plusieurs dizaines de kilogrammes. Les longues tiges rampantes peuvent atteindre 6 m de longueur, et le feuillage peut parfois s'élever jusqu'à 30 cm au-dessus du sol. Les grandes feuilles rugueuses, qui mesurent jusqu'à 30 cm de longueur, sont triangulaires, de couleur verte tirant vers le grisâtre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Cucurbita_foetidissima</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cucurbita_foetidissima</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description morphologique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La floraison a lieu entre avril et juillet.
+L'inflorescence est une fleur isolée en forme d'entonnoir, jaune ou orangé, située à l'aisselle des feuilles, et le plus souvent dissimulée par ces dernières. Chaque fleur mesure 5 à 7,5 cm de diamètre. La corolle est composée de 5 pétales partiellement soudés et se terminant par un lobe libre. Certaines fleurs sont dépourvues d'étamines. 
 Le fruit est un péponide de forme sphérique qui mesure en moyenne 7,5 cm de diamètre. Il est de consistance dure, rayé de vert pâle et de vert foncé quand il est immature, jaune à maturité.
 			Fleur
 			Fruit
@@ -525,63 +577,39 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Cucurbita_foetidissima</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Cucurbita_foetidissima</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette plante vit dans le sud-ouest des États-Unis et au Mexique. Sa limite orientale est le Missouri ; sa limite nord va de la Californie au Colorado.
 Peu exigeante en eau, elle pousse dans les espaces dégagés des plaines et déserts.
 </t>
         </is>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Cucurbita_foetidissima</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Cucurbita_foetidissima</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Systématique</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -604,14 +632,44 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cucurbita_foetidissima</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cucurbita_foetidissima</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Cucurbita foetidissima et l'homme</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Bien que son fruit soit souvent réputé incomestible, il est en réalité consommé lorsqu'il est récolté très jeune et cuisiné comme une courge. Cependant, à maturité il devient amer, immangeable et tout à fait toxique.
 Ce fruit est utilisé à des fins décoratives ou pour la fabrication d'instruments de musique, en particulier des maracas.  Des graines on tire une huile à odeur fétide, riche en acide linoléique.
-Il serait même possible de la cultiver pour produire du carburant[2] ou de l'éthanol biocarburant[3].
+Il serait même possible de la cultiver pour produire du carburant ou de l'éthanol biocarburant.
 </t>
         </is>
       </c>
